--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kolan.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kolan.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,256 +463,993 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:26:51.06</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.48117349537</v>
       </c>
       <c r="B2" t="n">
+        <v>2057.9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.472625187465123</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687.53267928241</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6508</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.61366445677621</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45687.5329443287</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6530.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.322613545826504</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.48117118055</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2057.7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.256811925343105</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.5243505787</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5788.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.015464748655049</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.5326769676</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6507.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.379422800881522</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.5914462963</v>
+      </c>
+      <c r="B8" t="n">
+        <v>500.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.903201307569232</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59210486111</v>
+      </c>
+      <c r="B9" t="n">
+        <v>557.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.891998989241466</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59272986111</v>
+      </c>
+      <c r="B10" t="n">
+        <v>611.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.631305115563529</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59144282407</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.685560260500227</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.5921025463</v>
+      </c>
+      <c r="B12" t="n">
+        <v>557.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.795107943671091</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59337916667</v>
+      </c>
+      <c r="B13" t="n">
+        <v>667.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.530354601996286</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59850416666</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1110.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.984936680112565</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60123564815</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1346.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.271494235311233</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60197986111</v>
+      </c>
+      <c r="B16" t="n">
         <v>1411</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C16" t="n">
         <v>14.11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D16" t="n">
         <v>3.578834329332624</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:31:36.96</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1696.9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.577859776360647</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:44:37.66</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2477.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.505382674080985</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:36:17.56</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1977.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.155896254948207</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:40:14.26</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2214.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.984619293894085</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:50:56.26</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2856.2</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59683055556</v>
+      </c>
+      <c r="B17" t="n">
+        <v>966.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.717948845454625</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.59755393519</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1028.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.593538182122364</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.6026337963</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1467.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.481043015207563</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64974571759</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1253</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.982890571866718</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.65119016204</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1377.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.912773438862392</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.66514965278</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2583.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.910629987716676</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.64706979167</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1021.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.141187412398201</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.64974108796</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1252.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.973512342997959</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.66514618055</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2583.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.02509641647339</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.671309375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3116.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.168988500322613</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.6777630787</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3673.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.344213451657978</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.68089155092</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3944</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.53179751123701</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.66746215278</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2783.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.013893025262014</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.67130706018</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3115.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.853109666279381</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.68088923611</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3943.8</v>
+      </c>
+      <c r="C31" t="n">
         <v>9.57</v>
       </c>
-      <c r="D7" t="n">
-        <v>3.064467430114746</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:38.03</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1253</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.982890571866718</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:42.83</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1377.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.912773438862392</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:57:48.93</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2583.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.910629987716676</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:31:46.83</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1021.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.141187412398201</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:57:48.63</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2583.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.02509641647339</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:20:28.83</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3943.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="D31" t="n">
         <v>3.297971963882447</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47630601852</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1200.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.677211855139051</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47737777778</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1293.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.350627865110123</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47512083333</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1098.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.945384860038758</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47654907408</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1221.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.877897330692837</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.47982569444</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1504.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.83068312917437</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.48759652778</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2176.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.182171617235457</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.48793796296</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2205.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.576994248798916</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.48801666667</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2212.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.335259880338397</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.48477824074</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1932.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.740033217838834</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.49301087963</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.702517815998623</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45686.49822384259</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3094.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.709368126732961</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
